--- a/media/exteriorPayment_1.xlsx
+++ b/media/exteriorPayment_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/media/exteriorPayment_1.xlsx
+++ b/media/exteriorPayment_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/media/exteriorPayment_1.xlsx
+++ b/media/exteriorPayment_1.xlsx
@@ -480,7 +480,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Daniela Londoño</t>
+          <t>John Doe</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DNI</t>
+          <t>Cédula</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>1234567890</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Cali</t>
+          <t>Ciudad X</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>calle 25</t>
+          <t>Calle 123, Ciudad Y</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Bancolombia</t>
+          <t>Banco XYZ</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BOFAUS3N</t>
+          <t>ABCDEF</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>01010101</t>
+          <t>GH1234567</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Daniela Londoño</t>
+          <t>John Doe</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>0987654321</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>calle 32</t>
+          <t>Avenida 456, Ciudad Z</t>
         </is>
       </c>
     </row>
